--- a/xdata/GUGUN.xlsx
+++ b/xdata/GUGUN.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="405" windowWidth="11535" windowHeight="6810"/>
+    <workbookView xWindow="3915" yWindow="285" windowWidth="13440" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
@@ -1010,7 +1009,7 @@
   <dimension ref="A1:C240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C240"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3659,30 +3658,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xdata/GUGUN.xlsx
+++ b/xdata/GUGUN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3915" yWindow="285" windowWidth="13440" windowHeight="4545"/>
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="219">
   <si>
     <t>중구</t>
   </si>
@@ -663,13 +662,25 @@
   </si>
   <si>
     <t>서귀포시</t>
+  </si>
+  <si>
+    <t>GUGUN_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIDO_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUGUN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +729,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -796,6 +812,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -830,6 +847,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1005,2652 +1023,2663 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>27</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>37</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>67</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>68</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>85</v>
-      </c>
-      <c r="B85">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>86</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
       <c r="C99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>100</v>
-      </c>
-      <c r="B100">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>101</v>
       </c>
       <c r="B101">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="C104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>105</v>
-      </c>
-      <c r="B105">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>106</v>
       </c>
       <c r="B106">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>7</v>
       </c>
       <c r="C116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>117</v>
-      </c>
-      <c r="B117">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
-        <v>118</v>
       </c>
       <c r="B118">
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>8</v>
       </c>
       <c r="C127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>128</v>
-      </c>
-      <c r="B128">
-        <v>9</v>
-      </c>
-      <c r="C128" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
-        <v>129</v>
       </c>
       <c r="B129">
         <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>9</v>
       </c>
       <c r="C150" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>151</v>
-      </c>
-      <c r="B151">
-        <v>10</v>
-      </c>
-      <c r="C151" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
-        <v>152</v>
       </c>
       <c r="B152">
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
       <c r="C158" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>159</v>
-      </c>
-      <c r="B159">
-        <v>11</v>
-      </c>
-      <c r="C159" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
-        <v>160</v>
       </c>
       <c r="B160">
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>11</v>
       </c>
       <c r="C163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>164</v>
-      </c>
-      <c r="B164">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
-        <v>165</v>
       </c>
       <c r="B165">
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>12</v>
       </c>
       <c r="C181" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>182</v>
-      </c>
-      <c r="B182">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
-        <v>183</v>
       </c>
       <c r="B183">
         <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>13</v>
       </c>
       <c r="C197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
         <v>198</v>
-      </c>
-      <c r="B198">
-        <v>14</v>
-      </c>
-      <c r="C198" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
-        <v>199</v>
       </c>
       <c r="B199">
         <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>14</v>
       </c>
       <c r="C207" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>14</v>
       </c>
       <c r="C210" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>14</v>
       </c>
       <c r="C211" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>14</v>
+      </c>
+      <c r="C212" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
         <v>212</v>
-      </c>
-      <c r="B212">
-        <v>15</v>
-      </c>
-      <c r="C212" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213">
-        <v>213</v>
       </c>
       <c r="B213">
         <v>15</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>15</v>
       </c>
       <c r="C216" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>15</v>
+      </c>
+      <c r="C217" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>217</v>
-      </c>
-      <c r="B217">
-        <v>16</v>
-      </c>
-      <c r="C217" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218">
-        <v>218</v>
       </c>
       <c r="B218">
         <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>16</v>
       </c>
       <c r="C229" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>16</v>
       </c>
       <c r="C231" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>16</v>
       </c>
       <c r="C236" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>16</v>
       </c>
       <c r="C237" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>16</v>
       </c>
       <c r="C238" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>16</v>
+      </c>
+      <c r="C239" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240">
         <v>239</v>
-      </c>
-      <c r="B239">
-        <v>17</v>
-      </c>
-      <c r="C239" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240">
-        <v>240</v>
       </c>
       <c r="B240">
         <v>17</v>
       </c>
       <c r="C240" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>17</v>
+      </c>
+      <c r="C241" t="s">
         <v>215</v>
       </c>
     </row>
